--- a/rhipe_old_distro/DL-distro.xlsx
+++ b/rhipe_old_distro/DL-distro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yashshrestha/ps_repos/aws_group_creation/rhipe_old_distro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811A9885-8269-1248-9E6C-AB3521934012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48993A07-0388-6A4D-9AE5-742C007E6C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="1360" windowWidth="23420" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18540" yWindow="500" windowWidth="34040" windowHeight="25180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="107">
   <si>
     <t>DisplayName</t>
   </si>
@@ -354,24 +354,38 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -386,8 +400,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,19 +424,22 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3B2EEB6-EBB6-9743-B352-FBC7060BFE2E}" name="Table1" displayName="Table1" ref="A1:C102" totalsRowCount="1" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
   <autoFilter ref="A1:C101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C101">
+    <sortCondition ref="C1:C101"/>
+  </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B881B270-F123-B24C-8AFD-E900090BB4BD}" name="DisplayName" totalsRowLabel="Total" dataCellStyle="Normal" totalsRowCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{3737F1F8-1B63-4B41-892D-220A162C8066}" name="Source" dataCellStyle="Normal" totalsRowCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{95931519-A7F9-4445-9DC1-B5E06F0E7780}" name="MembersCount" totalsRowFunction="sum" dataCellStyle="Normal" totalsRowCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{B881B270-F123-B24C-8AFD-E900090BB4BD}" name="DisplayName" totalsRowLabel="Total" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{3737F1F8-1B63-4B41-892D-220A162C8066}" name="Source" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{95931519-A7F9-4445-9DC1-B5E06F0E7780}" name="MembersCount" totalsRowFunction="sum" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -458,7 +477,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -564,7 +583,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -706,7 +725,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="178" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -740,216 +759,219 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -958,394 +980,394 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
       </c>
       <c r="C25">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C26">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
       <c r="C27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
       </c>
       <c r="C30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="C31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C44">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C56">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -1356,431 +1378,431 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
         <v>17</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>17</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
         <v>17</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
         <v>17</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
       </c>
       <c r="C69">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
         <v>17</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
         <v>17</v>
       </c>
       <c r="C71">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B72" t="s">
         <v>17</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
         <v>17</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s">
         <v>17</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>17</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B79" t="s">
         <v>17</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B80" t="s">
         <v>17</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B82" t="s">
         <v>17</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>88</v>
+      <c r="A85" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B85" t="s">
         <v>17</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
         <v>17</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
         <v>17</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s">
         <v>17</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="B96" t="s">
         <v>17</v>
       </c>
       <c r="C96">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -1796,46 +1818,46 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B99" t="s">
         <v>17</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100">
-        <v>9</v>
+      <c r="A100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101">
-        <v>10</v>
+      <c r="A101" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
